--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{70FA5AA7-E1DE-441A-B702-A36A95286467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79EF285B-EFBE-4FA0-B3E2-695F869A0097}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{70FA5AA7-E1DE-441A-B702-A36A95286467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71756111-099D-48BE-B1A9-5F7C3705CA11}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="135">
   <si>
     <t>Group</t>
   </si>
@@ -442,10 +442,13 @@
     <t>EASE: Estimation Approach to Statistics with Excel.</t>
   </si>
   <si>
-    <t>Available at https://github.com/cwendorf/BASE</t>
+    <t>https://github.com/cwendorf/BASE</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE</t>
+    <t>[Excel Spreadsheet]</t>
+  </si>
+  <si>
+    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
   </si>
 </sst>
 </file>
@@ -1411,11 +1414,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1445,10 +1452,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -8773,8 +8776,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8850,7 +8853,7 @@
       <c r="I4" s="151"/>
       <c r="J4" s="151"/>
       <c r="K4" s="201" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L4" s="199"/>
       <c r="M4" s="199"/>
@@ -9024,7 +9027,7 @@
         <v>114</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9039,6 +9042,9 @@
       </c>
       <c r="C26" s="32" t="s">
         <v>11</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>134</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9196,31 +9202,31 @@
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="K2" s="204" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="K2" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
       <c r="N2" s="149"/>
       <c r="O2" s="149"/>
-      <c r="R2" s="204" t="s">
+      <c r="R2" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="204"/>
-      <c r="T2" s="204"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="204"/>
-      <c r="W2" s="204"/>
-      <c r="X2" s="204"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -9271,15 +9277,15 @@
       <c r="X5" s="55"/>
     </row>
     <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
       <c r="Q6" s="36"/>
       <c r="R6" s="161" t="s">
         <v>64</v>
@@ -9304,13 +9310,13 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
       <c r="Q7" s="36"/>
       <c r="R7" s="164" t="str">
         <f>IF($B$26="","",$B$26)</f>
@@ -9341,13 +9347,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
       <c r="Q8" s="36"/>
       <c r="R8" s="165" t="str">
         <f>IF($B$27="","",$B$27)</f>
@@ -9415,15 +9421,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="210" t="s">
+      <c r="B10" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
       <c r="R10" s="165" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9453,13 +9459,13 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
       <c r="Q11" s="36"/>
       <c r="R11" s="75" t="s">
         <v>53</v>
@@ -9489,13 +9495,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="206"/>
-      <c r="C12" s="206"/>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="206"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
@@ -9506,13 +9512,13 @@
       <c r="X12" s="41"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="206"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="206"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
       <c r="Q13" s="55"/>
       <c r="R13" s="55" t="s">
         <v>65</v>
@@ -9525,13 +9531,13 @@
       <c r="X13" s="55"/>
     </row>
     <row r="14" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="207"/>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -9578,16 +9584,16 @@
       <c r="X20" s="55"/>
     </row>
     <row r="21" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="208" t="s">
+      <c r="B21" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209" t="s">
+      <c r="C21" s="209"/>
+      <c r="D21" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="12" t="s">
         <v>29</v>
       </c>
@@ -9613,12 +9619,12 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
       <c r="H22" s="106"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="164"/>
@@ -9632,12 +9638,12 @@
       <c r="X22" s="111"/>
     </row>
     <row r="23" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
       <c r="H23" s="107"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="165"/>
@@ -9696,12 +9702,12 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
       <c r="H26" s="106"/>
       <c r="Q26" s="36"/>
       <c r="R26" s="41"/>
@@ -9713,12 +9719,12 @@
       <c r="X26" s="41"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
+      <c r="B27" s="204"/>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
       <c r="H27" s="54"/>
       <c r="Q27" s="55"/>
       <c r="R27" s="55" t="s">
@@ -9732,12 +9738,12 @@
       <c r="X27" s="55"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
+      <c r="B28" s="204"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
       <c r="H28" s="54"/>
       <c r="Q28" s="55"/>
       <c r="R28"/>
@@ -9749,12 +9755,12 @@
       <c r="X28" s="55"/>
     </row>
     <row r="29" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
+      <c r="B29" s="202"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
       <c r="H29" s="107"/>
       <c r="R29" s="62" t="s">
         <v>56</v>
@@ -9950,14 +9956,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -9971,6 +9969,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C9140-FEE2-438F-BB20-FF692AE4C1EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{434C9140-FEE2-438F-BB20-FF692AE4C1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE94E011-2224-4104-9975-1CFB5CF727FA}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="720" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="132">
   <si>
     <t>Group</t>
   </si>
@@ -427,15 +429,6 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
-    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
-  </si>
-  <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/EASE</t>
-  </si>
-  <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
@@ -443,6 +436,12 @@
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
+  </si>
+  <si>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
 </sst>
 </file>
@@ -8766,23 +8765,23 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="31"/>
-    <col min="9" max="10" width="4.5703125" style="31" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="31"/>
-    <col min="18" max="19" width="4.5703125" style="31" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="31"/>
+    <col min="1" max="1" width="4.578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="31"/>
+    <col min="9" max="10" width="4.578125" style="31" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="31"/>
+    <col min="18" max="19" width="4.578125" style="31" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="149"/>
     </row>
-    <row r="2" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="149"/>
       <c r="B2" s="199" t="s">
         <v>126</v>
@@ -8805,7 +8804,7 @@
       <c r="P2" s="200"/>
       <c r="Q2" s="200"/>
     </row>
-    <row r="3" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="149"/>
       <c r="B3" s="201" t="s">
         <v>39</v>
@@ -8819,7 +8818,7 @@
       <c r="I3" s="198"/>
       <c r="J3" s="198"/>
       <c r="K3" s="201" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L3" s="201"/>
       <c r="M3" s="201"/>
@@ -8828,7 +8827,7 @@
       <c r="P3" s="201"/>
       <c r="Q3" s="201"/>
     </row>
-    <row r="4" spans="1:17" s="155" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="155" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="154"/>
       <c r="B4" s="201" t="s">
         <v>38</v>
@@ -8842,7 +8841,7 @@
       <c r="I4" s="198"/>
       <c r="J4" s="198"/>
       <c r="K4" s="202" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="201"/>
       <c r="M4" s="201"/>
@@ -8851,7 +8850,7 @@
       <c r="P4" s="201"/>
       <c r="Q4" s="201"/>
     </row>
-    <row r="5" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="149"/>
       <c r="I5" s="151"/>
       <c r="J5" s="151"/>
@@ -8863,7 +8862,7 @@
       <c r="P5" s="151"/>
       <c r="Q5" s="151"/>
     </row>
-    <row r="6" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="149"/>
       <c r="B6" s="7" t="s">
         <v>90</v>
@@ -8872,7 +8871,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31" t="s">
         <v>103</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
         <v>106</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="31" t="s">
         <v>112</v>
       </c>
@@ -8896,12 +8895,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="7" t="s">
         <v>92</v>
       </c>
@@ -8909,10 +8908,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="31" t="s">
         <v>9</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31"/>
       <c r="B16" s="31" t="s">
         <v>108</v>
@@ -8929,7 +8928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
       <c r="B17" s="31" t="s">
         <v>104</v>
@@ -8938,7 +8937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31"/>
       <c r="B18" s="31" t="s">
         <v>105</v>
@@ -8947,7 +8946,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="31"/>
       <c r="B20" s="7" t="s">
         <v>95</v>
@@ -8956,7 +8955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31"/>
       <c r="B22" s="28" t="s">
         <v>96</v>
@@ -8973,7 +8972,7 @@
       <c r="O22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31"/>
       <c r="B23" s="28" t="s">
         <v>97</v>
@@ -8990,7 +8989,7 @@
       <c r="O23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31"/>
       <c r="B24" s="28" t="s">
         <v>101</v>
@@ -9007,7 +9006,7 @@
       <c r="O24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
         <v>125</v>
@@ -9016,7 +9015,7 @@
         <v>111</v>
       </c>
       <c r="K25" s="197" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9024,7 +9023,7 @@
       <c r="O25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31"/>
       <c r="B26" s="28" t="s">
         <v>102</v>
@@ -9041,7 +9040,7 @@
       <c r="O26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -9050,13 +9049,13 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9065,7 +9064,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="L29"/>
@@ -9075,7 +9074,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="31"/>
       <c r="B30" s="30" t="s">
         <v>98</v>
@@ -9090,13 +9089,13 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31"/>
       <c r="B31" s="30" t="s">
         <v>99</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9105,13 +9104,13 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="31"/>
       <c r="B32" s="30" t="s">
         <v>100</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9120,7 +9119,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -9161,29 +9160,29 @@
       <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" style="5"/>
-    <col min="6" max="6" width="11.140625" style="44"/>
-    <col min="7" max="8" width="11.140625" style="5"/>
-    <col min="9" max="10" width="4.5703125" style="5" customWidth="1"/>
-    <col min="11" max="13" width="18.5703125" style="21" customWidth="1"/>
-    <col min="14" max="15" width="11.140625" style="5"/>
-    <col min="16" max="16" width="4.5703125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="18" max="24" width="11.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="11.15625" style="5"/>
+    <col min="6" max="6" width="11.15625" style="44"/>
+    <col min="7" max="8" width="11.15625" style="5"/>
+    <col min="9" max="10" width="4.578125" style="5" customWidth="1"/>
+    <col min="11" max="13" width="18.578125" style="21" customWidth="1"/>
+    <col min="14" max="15" width="11.15625" style="5"/>
+    <col min="16" max="16" width="4.578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="24" width="11.15625" style="5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="5"/>
       <c r="K1" s="44"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="206" t="s">
         <v>33</v>
       </c>
@@ -9210,7 +9209,7 @@
       <c r="W2" s="206"/>
       <c r="X2" s="206"/>
     </row>
-    <row r="3" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
       <c r="K3" s="44"/>
       <c r="L3" s="6"/>
@@ -9220,7 +9219,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B4" s="13" t="s">
         <v>33</v>
       </c>
@@ -9246,7 +9245,7 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="Q5" s="35"/>
@@ -9258,7 +9257,7 @@
       <c r="W5" s="54"/>
       <c r="X5" s="54"/>
     </row>
-    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="210" t="s">
         <v>30</v>
       </c>
@@ -9291,7 +9290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="213"/>
       <c r="C7" s="213"/>
       <c r="D7" s="213"/>
@@ -9328,7 +9327,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="214"/>
       <c r="C8" s="214"/>
       <c r="D8" s="214"/>
@@ -9365,7 +9364,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9402,7 +9401,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="212" t="s">
         <v>31</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="207"/>
       <c r="C11" s="207"/>
       <c r="D11" s="207"/>
@@ -9476,7 +9475,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="208"/>
       <c r="C12" s="208"/>
       <c r="D12" s="208"/>
@@ -9493,7 +9492,7 @@
       <c r="W12" s="40"/>
       <c r="X12" s="40"/>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="208"/>
       <c r="C13" s="208"/>
       <c r="D13" s="208"/>
@@ -9512,7 +9511,7 @@
       <c r="W13" s="54"/>
       <c r="X13" s="54"/>
     </row>
-    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="209"/>
@@ -9529,7 +9528,7 @@
       <c r="W14" s="54"/>
       <c r="X14" s="54"/>
     </row>
-    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
@@ -9548,7 +9547,7 @@
       <c r="W19" s="99"/>
       <c r="X19" s="109"/>
     </row>
-    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -9565,7 +9564,7 @@
       <c r="W20" s="54"/>
       <c r="X20" s="54"/>
     </row>
-    <row r="21" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="210" t="s">
         <v>29</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="204"/>
       <c r="C22" s="204"/>
       <c r="D22" s="204"/>
@@ -9619,7 +9618,7 @@
       <c r="W22" s="110"/>
       <c r="X22" s="110"/>
     </row>
-    <row r="23" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="203"/>
       <c r="C23" s="203"/>
       <c r="D23" s="203"/>
@@ -9638,7 +9637,7 @@
       <c r="W23" s="111"/>
       <c r="X23" s="111"/>
     </row>
-    <row r="24" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -9657,7 +9656,7 @@
       </c>
       <c r="X24" s="111"/>
     </row>
-    <row r="25" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="98" t="str">
         <f>IF(B22="","",B22)</f>
         <v/>
@@ -9683,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="204"/>
       <c r="C26" s="204"/>
       <c r="D26" s="204"/>
@@ -9700,7 +9699,7 @@
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="205"/>
       <c r="C27" s="205"/>
       <c r="D27" s="205"/>
@@ -9719,7 +9718,7 @@
       <c r="W27" s="54"/>
       <c r="X27" s="54"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="205"/>
       <c r="C28" s="205"/>
       <c r="D28" s="205"/>
@@ -9736,7 +9735,7 @@
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
     </row>
-    <row r="29" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B29" s="203"/>
       <c r="C29" s="203"/>
       <c r="D29" s="203"/>
@@ -9754,7 +9753,7 @@
       <c r="W29" s="58"/>
       <c r="X29" s="28"/>
     </row>
-    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -9771,7 +9770,7 @@
       <c r="W30" s="58"/>
       <c r="X30" s="28"/>
     </row>
-    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
       <c r="E31" s="47"/>
@@ -9799,7 +9798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="E32" s="47"/>
@@ -9834,7 +9833,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
       <c r="E33" s="47"/>
@@ -9859,7 +9858,7 @@
       <c r="W33" s="84"/>
       <c r="X33" s="85"/>
     </row>
-    <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
       <c r="E34" s="47"/>
@@ -9884,7 +9883,7 @@
       <c r="W34" s="86"/>
       <c r="X34" s="88"/>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
       <c r="E35" s="47"/>
@@ -9898,39 +9897,39 @@
       <c r="W35" s="59"/>
       <c r="X35" s="59"/>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
       <c r="E36" s="47"/>
       <c r="F36" s="47"/>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
     </row>
@@ -9976,26 +9975,26 @@
       <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="119" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="42"/>
-    <col min="9" max="9" width="4.5703125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="119" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="42"/>
-    <col min="18" max="18" width="4.5703125" style="119" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="119" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="42"/>
+    <col min="9" max="9" width="4.578125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="119" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="42"/>
+    <col min="18" max="18" width="4.578125" style="119" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="42" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="42" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="42" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="42"/>
+    <col min="27" max="27" width="4.578125" style="42" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="147" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="146"/>
       <c r="J1" s="146"/>
       <c r="R1" s="146"/>
     </row>
-    <row r="2" spans="1:26" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="147" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="146"/>
       <c r="B2" s="215" t="s">
         <v>43</v>
@@ -10028,7 +10027,7 @@
       <c r="Y2" s="215"/>
       <c r="Z2" s="215"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="118"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -10047,7 +10046,7 @@
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="7" t="s">
         <v>117</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="118"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -10095,7 +10094,7 @@
       <c r="P5" s="28"/>
       <c r="Q5" s="28"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="118"/>
       <c r="B6" s="159" t="s">
         <v>0</v>
@@ -10137,7 +10136,7 @@
       </c>
       <c r="Q6" s="216"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="118"/>
       <c r="B7" s="161" t="str">
         <f>IF(Data!R7="","",Data!R7)</f>
@@ -10197,7 +10196,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="118"/>
       <c r="B8" s="85" t="str">
         <f>IF(Data!R8="","",Data!R8)</f>
@@ -10257,7 +10256,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="118"/>
       <c r="B9" s="85" t="str">
         <f>IF(Data!R9="","",Data!R9)</f>
@@ -10317,7 +10316,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="118"/>
       <c r="B10" s="85" t="str">
         <f>IF(Data!R10="","",Data!R10)</f>
@@ -10377,7 +10376,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="118"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -10396,13 +10395,13 @@
       <c r="P11" s="59"/>
       <c r="Q11" s="59"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="118"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="118"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="8" t="s">
         <v>119</v>
       </c>
@@ -10426,7 +10425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -10445,7 +10444,7 @@
       <c r="P15" s="28"/>
       <c r="Q15" s="28"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="29"/>
       <c r="B16" s="142" t="s">
         <v>81</v>
@@ -10494,7 +10493,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="49" t="s">
         <v>0</v>
@@ -10563,7 +10562,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="48">
         <v>1.1000000000000001</v>
@@ -10637,7 +10636,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29"/>
       <c r="B19" s="48">
         <v>1.1000000000000001</v>
@@ -10711,7 +10710,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="29"/>
       <c r="B20" s="48">
         <v>1.1000000000000001</v>
@@ -10785,7 +10784,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="29"/>
       <c r="B21" s="48">
         <v>2.1</v>
@@ -10838,7 +10837,7 @@
       <c r="Y21" s="138"/>
       <c r="Z21" s="138"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="29"/>
       <c r="B22" s="48">
         <v>2.1</v>
@@ -10905,7 +10904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="48">
         <v>2.1</v>
@@ -10979,7 +10978,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="48">
         <v>3.1</v>
@@ -11053,7 +11052,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="48">
         <v>3.1</v>
@@ -11127,7 +11126,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="29"/>
       <c r="B26" s="48">
         <v>3.1</v>
@@ -11201,7 +11200,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="29"/>
       <c r="B27" s="48">
         <v>4.0999999999999996</v>
@@ -11254,7 +11253,7 @@
       <c r="Y27" s="134"/>
       <c r="Z27" s="134"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="49">
         <v>4.0999999999999996</v>
@@ -11315,7 +11314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="49">
         <v>4.0999999999999996</v>
@@ -11381,7 +11380,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="89"/>
       <c r="C30" s="89"/>
@@ -11420,7 +11419,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="89"/>
       <c r="C31" s="89"/>
@@ -11459,7 +11458,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="29"/>
       <c r="B32" s="89"/>
       <c r="C32" s="89"/>
@@ -11497,7 +11496,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="135"/>
       <c r="B33" s="89"/>
       <c r="C33" s="89"/>
@@ -11514,7 +11513,7 @@
       <c r="Y33" s="134"/>
       <c r="Z33" s="134"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="118"/>
       <c r="B34" s="89"/>
       <c r="C34" s="30"/>
@@ -11525,7 +11524,7 @@
       <c r="H34" s="30"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="118"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -11535,7 +11534,7 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="60" t="s">
         <v>118</v>
       </c>
@@ -11551,7 +11550,7 @@
       <c r="P37" s="118"/>
       <c r="Q37" s="118"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="I38" s="28"/>
       <c r="J38" s="118"/>
       <c r="K38" s="118"/>
@@ -11562,7 +11561,7 @@
       <c r="P38" s="118"/>
       <c r="Q38" s="118"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="158" t="s">
         <v>0</v>
       </c>
@@ -11598,7 +11597,7 @@
       <c r="P39" s="118"/>
       <c r="Q39" s="118"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="161" t="str">
         <f>B7</f>
         <v/>
@@ -11640,7 +11639,7 @@
       <c r="U40" s="119"/>
       <c r="V40" s="119"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="85" t="str">
         <f>B8</f>
         <v/>
@@ -11682,7 +11681,7 @@
       <c r="U41" s="119"/>
       <c r="V41" s="119"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="85" t="str">
         <f>B9</f>
         <v/>
@@ -11724,7 +11723,7 @@
       <c r="U42" s="119"/>
       <c r="V42" s="119"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="162" t="str">
         <f>B10</f>
         <v/>
@@ -11766,7 +11765,7 @@
       <c r="U43" s="119"/>
       <c r="V43" s="119"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="134"/>
       <c r="C44" s="59"/>
       <c r="D44" s="134"/>
@@ -11814,21 +11813,21 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="54" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="54"/>
-    <col min="9" max="10" width="4.5703125" style="54" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="54"/>
-    <col min="18" max="18" width="4.5703125" style="54" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="54" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="54" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="54"/>
+    <col min="9" max="10" width="4.578125" style="54" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="54"/>
+    <col min="18" max="18" width="4.578125" style="54" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="54" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="54" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="54" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="54"/>
+    <col min="27" max="27" width="4.578125" style="54" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:26" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="215" t="s">
         <v>78</v>
       </c>
@@ -11857,7 +11856,7 @@
       <c r="Y2" s="215"/>
       <c r="Z2" s="215"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="60" t="s">
         <v>117</v>
       </c>
@@ -11890,7 +11889,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -11908,7 +11907,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="158" t="s">
         <v>0</v>
       </c>
@@ -11958,7 +11957,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="105"/>
       <c r="C7" s="69" t="str">
         <f>IF(B7="","",VLOOKUP($B7,Data!$S$7:$V$10,2,FALSE))</f>
@@ -12022,7 +12021,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="177"/>
       <c r="C8" s="73" t="str">
         <f>IF(B8="","",VLOOKUP($B8,Data!$S$7:$V$10,2,FALSE))</f>
@@ -12086,7 +12085,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="103"/>
       <c r="C9" s="103"/>
       <c r="D9" s="103"/>
@@ -12111,7 +12110,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="188" t="s">
         <v>116</v>
       </c>
@@ -12159,7 +12158,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="168" t="s">
         <v>72</v>
       </c>
@@ -12222,7 +12221,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -12247,7 +12246,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R13" s="119"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
@@ -12258,7 +12257,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="60" t="s">
         <v>119</v>
       </c>
@@ -12288,7 +12287,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -12306,7 +12305,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="156" t="s">
         <v>81</v>
       </c>
@@ -12358,7 +12357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="43" t="s">
         <v>0</v>
       </c>
@@ -12427,7 +12426,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -12585,7 +12584,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -12643,7 +12642,7 @@
       <c r="Y20" s="138"/>
       <c r="Z20" s="138"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="43">
         <v>2.1</v>
       </c>
@@ -12715,7 +12714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="43">
         <v>2.1</v>
       </c>
@@ -12794,7 +12793,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="43">
         <v>2.1</v>
       </c>
@@ -12871,7 +12870,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="43">
         <v>2.75</v>
       </c>
@@ -12948,7 +12947,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="43">
         <v>2.75</v>
       </c>
@@ -13004,7 +13003,7 @@
       <c r="Y25" s="134"/>
       <c r="Z25" s="134"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="43">
         <v>2.75</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="89"/>
       <c r="C27" s="107"/>
       <c r="D27" s="107"/>
@@ -13125,7 +13124,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="89"/>
       <c r="C28" s="89"/>
       <c r="D28" s="107"/>
@@ -13182,7 +13181,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="89"/>
       <c r="C29" s="89"/>
       <c r="D29" s="107"/>
@@ -13221,7 +13220,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="173" t="s">
         <v>82</v>
       </c>
@@ -13253,7 +13252,7 @@
       <c r="Y30" s="134"/>
       <c r="Z30" s="134"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -13310,7 +13309,7 @@
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="43">
         <v>3.15</v>
       </c>
@@ -13365,7 +13364,7 @@
       </c>
       <c r="S32" s="42"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="43"/>
       <c r="C33" s="107"/>
       <c r="D33" s="43"/>
@@ -13382,7 +13381,7 @@
       <c r="Q33" s="89"/>
       <c r="S33" s="42"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="43"/>
       <c r="C34" s="107"/>
       <c r="D34" s="43"/>
@@ -13415,7 +13414,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="43"/>
       <c r="C35" s="107"/>
       <c r="D35" s="43"/>
@@ -13448,7 +13447,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="43"/>
       <c r="C36" s="107"/>
       <c r="D36" s="43"/>
@@ -13472,7 +13471,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="60" t="s">
         <v>118</v>
       </c>
@@ -13495,7 +13494,7 @@
       <c r="Y37" s="119"/>
       <c r="Z37" s="119"/>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K38" s="118"/>
       <c r="L38" s="118"/>
       <c r="M38" s="118"/>
@@ -13513,7 +13512,7 @@
       <c r="Y38" s="119"/>
       <c r="Z38" s="119"/>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="158" t="s">
         <v>0</v>
       </c>
@@ -13556,7 +13555,7 @@
       <c r="Y39" s="119"/>
       <c r="Z39" s="119"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="69" t="str">
         <f>IF(B7="","",B7)</f>
         <v/>
@@ -13604,7 +13603,7 @@
       <c r="Y40" s="119"/>
       <c r="Z40" s="119"/>
     </row>
-    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="113" t="str">
         <f>IF(B8="","",B8)</f>
         <v/>
@@ -13652,7 +13651,7 @@
       <c r="Y41" s="119"/>
       <c r="Z41" s="119"/>
     </row>
-    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="40"/>
       <c r="C42" s="103"/>
       <c r="D42" s="40"/>
@@ -13677,7 +13676,7 @@
       <c r="Y42" s="119"/>
       <c r="Z42" s="119"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="189" t="s">
         <v>116</v>
       </c>
@@ -13720,7 +13719,7 @@
       <c r="Y43" s="119"/>
       <c r="Z43" s="119"/>
     </row>
-    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="168" t="s">
         <v>72</v>
       </c>
@@ -13766,7 +13765,7 @@
       <c r="Y44" s="119"/>
       <c r="Z44" s="119"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -13821,21 +13820,21 @@
       <selection activeCell="L40" sqref="L40:L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="31" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="31"/>
-    <col min="9" max="9" width="4.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="34" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="34" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" style="34" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="31" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="31"/>
+    <col min="9" max="9" width="4.578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="34" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="34" customWidth="1"/>
+    <col min="18" max="18" width="4.578125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="34" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="34"/>
+    <col min="27" max="27" width="4.578125" style="34" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="145"/>
       <c r="B1" s="145"/>
       <c r="C1" s="145"/>
@@ -13846,7 +13845,7 @@
       <c r="H1" s="145"/>
       <c r="I1" s="145"/>
     </row>
-    <row r="2" spans="1:27" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="144" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="215" t="s">
         <v>46</v>
@@ -13879,7 +13878,7 @@
       <c r="Y2" s="215"/>
       <c r="Z2" s="215"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -13889,7 +13888,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="8" t="s">
         <v>117</v>
       </c>
@@ -13923,7 +13922,7 @@
       <c r="Z4" s="54"/>
       <c r="AA4" s="54"/>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -13942,7 +13941,7 @@
       <c r="Z5" s="54"/>
       <c r="AA5" s="54"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="63" t="s">
         <v>4</v>
       </c>
@@ -14008,7 +14007,7 @@
       </c>
       <c r="AA6" s="54"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="22" t="str">
         <f>IF(D7="","","1 vs. 2")</f>
         <v/>
@@ -14096,7 +14095,7 @@
       </c>
       <c r="AA7" s="54"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="24" t="str">
         <f>IF(D8="","","1 vs. 3")</f>
         <v/>
@@ -14185,7 +14184,7 @@
       </c>
       <c r="AA8" s="54"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="24" t="str">
         <f>IF(D9="","","2 vs. 3")</f>
         <v/>
@@ -14274,7 +14273,7 @@
       </c>
       <c r="AA9" s="54"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="24" t="str">
         <f>IF(D10="","","1 vs. 4")</f>
         <v/>
@@ -14363,7 +14362,7 @@
       </c>
       <c r="AA10" s="54"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="24" t="str">
         <f>IF(D11="","","2 vs. 4")</f>
         <v/>
@@ -14452,7 +14451,7 @@
       </c>
       <c r="AA11" s="54"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="26" t="str">
         <f>IF(D12="","","3 vs. 4")</f>
         <v/>
@@ -14541,7 +14540,7 @@
       </c>
       <c r="AA12" s="54"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="40"/>
       <c r="D13" s="2"/>
@@ -14567,7 +14566,7 @@
       <c r="Z13" s="40"/>
       <c r="AA13" s="54"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="8" t="s">
         <v>119</v>
       </c>
@@ -14584,7 +14583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -14594,7 +14593,7 @@
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="142" t="s">
         <v>81</v>
       </c>
@@ -14640,7 +14639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="49" t="s">
         <v>0</v>
       </c>
@@ -14705,7 +14704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -14776,7 +14775,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" s="51">
         <v>1.1000000000000001</v>
       </c>
@@ -14919,7 +14918,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="51">
         <v>2.1</v>
       </c>
@@ -14990,7 +14989,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="51">
         <v>2.1</v>
       </c>
@@ -15061,7 +15060,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="51">
         <v>2.1</v>
       </c>
@@ -15111,7 +15110,7 @@
       <c r="Y23" s="103"/>
       <c r="Z23" s="103"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="51">
         <v>3.1</v>
       </c>
@@ -15175,7 +15174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="51">
         <v>3.1</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="51">
         <v>3.1</v>
       </c>
@@ -15317,7 +15316,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="51">
         <v>4.0999999999999996</v>
       </c>
@@ -15388,7 +15387,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -15530,7 +15529,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="51">
         <v>5.0999999999999996</v>
       </c>
@@ -15601,7 +15600,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="51">
         <v>5.0999999999999996</v>
       </c>
@@ -15651,7 +15650,7 @@
       <c r="Y31" s="54"/>
       <c r="Z31" s="54"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="51">
         <v>5.0999999999999996</v>
       </c>
@@ -15708,7 +15707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B33" s="51">
         <v>6.1</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="51">
         <v>6.1</v>
       </c>
@@ -15834,7 +15833,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="51">
         <v>6.1</v>
       </c>
@@ -15897,7 +15896,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -15926,7 +15925,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="60" t="s">
         <v>118</v>
       </c>
@@ -15967,7 +15966,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
@@ -16004,7 +16003,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="92" t="s">
         <v>4</v>
       </c>
@@ -16044,7 +16043,7 @@
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="22" t="str">
         <f t="shared" ref="B40:B45" si="33">B7</f>
         <v/>
@@ -16082,7 +16081,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="24" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16120,7 +16119,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="24" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16158,7 +16157,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="24" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16196,7 +16195,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="24" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16234,7 +16233,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="26" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -16272,7 +16271,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="40"/>
       <c r="C46" s="2"/>
       <c r="D46" s="40"/>
@@ -16289,7 +16288,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="35"/>
       <c r="C52" s="54"/>
       <c r="D52" s="54"/>
@@ -16299,7 +16298,7 @@
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="54"/>
     </row>
   </sheetData>

--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{434C9140-FEE2-438F-BB20-FF692AE4C1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE94E011-2224-4104-9975-1CFB5CF727FA}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="114_{9C8424FF-C181-4B64-AF13-28DCD2F1B771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38822079-87EF-4AA1-8520-65DFAC4740B6}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1402,18 +1402,14 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1421,7 +1417,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1440,6 +1436,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1518,9 +1518,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2462,9 +2462,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3349,6 +3349,12 @@
               <c:f>OneComp!$B$40:$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>Subset</c:v>
                 </c:pt>
@@ -3536,7 +3542,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3560,7 +3568,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3584,7 +3594,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3608,7 +3620,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3632,7 +3646,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3656,7 +3672,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -3793,6 +3811,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$H$18:$H$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2B54-48E7-B1A3-3FFDB5D5F70E}"/>
             </c:ext>
@@ -4267,7 +4326,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4277,13 +4338,20 @@
               <c:idx val="1"/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                  <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
                     <a:spAutoFit/>
                   </a:bodyPr>
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr b="1"/>
+                      <a:defRPr b="1">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                      </a:defRPr>
                     </a:pPr>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
@@ -4304,7 +4372,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4329,7 +4399,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4342,6 +4414,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -4395,6 +4486,14 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$D$24:$D$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7ACD-4577-9B6C-3FD6C97D6069}"/>
             </c:ext>
@@ -4567,6 +4666,12 @@
               <c:f>OneComp!$K$7:$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>Subset</c:v>
                 </c:pt>
@@ -4730,7 +4835,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4754,7 +4861,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4778,7 +4887,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4802,7 +4913,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4826,7 +4939,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4850,7 +4965,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4874,7 +4991,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5011,6 +5130,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5478,7 +5638,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5515,7 +5677,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5540,7 +5704,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5606,6 +5772,14 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$M$24:$M$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5781,9 +5955,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6965,9 +7139,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8211,16 +8385,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>302895</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152397</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>188592</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8250,15 +8424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>160017</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
+      <xdr:colOff>20955</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>5712</xdr:rowOff>
+      <xdr:rowOff>47622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9141,7 +9315,7 @@
   <hyperlinks>
     <hyperlink ref="K26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{D8147F1B-64FE-42D7-A6C2-686120DB4A08}"/>
+    <hyperlink ref="K25" r:id="rId3" xr:uid="{A73D6330-88C6-48CA-AE84-A1C0A8CC8449}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9157,7 +9331,7 @@
   <dimension ref="B1:Y43"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9183,31 +9357,31 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="K2" s="206" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="K2" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
       <c r="N2" s="148"/>
       <c r="O2" s="148"/>
-      <c r="R2" s="206" t="s">
+      <c r="R2" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -9258,15 +9432,15 @@
       <c r="X5" s="54"/>
     </row>
     <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="160" t="s">
         <v>63</v>
@@ -9291,13 +9465,13 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="163" t="str">
         <f>IF($B$26="","",$B$26)</f>
@@ -9328,13 +9502,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="164" t="str">
         <f>IF($B$27="","",$B$27)</f>
@@ -9402,15 +9576,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
       <c r="R10" s="164" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9440,13 +9614,13 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="207"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="207"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="74" t="s">
         <v>52</v>
@@ -9476,13 +9650,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="208"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
@@ -9493,13 +9667,13 @@
       <c r="X12" s="40"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="54" t="s">
         <v>64</v>
@@ -9512,13 +9686,13 @@
       <c r="X13" s="54"/>
     </row>
     <row r="14" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="209"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="54"/>
       <c r="S14" s="54"/>
@@ -9565,16 +9739,16 @@
       <c r="X20" s="54"/>
     </row>
     <row r="21" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211" t="s">
+      <c r="C21" s="209"/>
+      <c r="D21" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="11" t="s">
         <v>28</v>
       </c>
@@ -9600,12 +9774,12 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="204"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
       <c r="H22" s="105"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="163"/>
@@ -9619,12 +9793,12 @@
       <c r="X22" s="110"/>
     </row>
     <row r="23" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
       <c r="H23" s="106"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="164"/>
@@ -9683,12 +9857,12 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="204"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
       <c r="H26" s="105"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="40"/>
@@ -9700,12 +9874,12 @@
       <c r="X26" s="40"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="205"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
       <c r="H27" s="53"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="54" t="s">
@@ -9719,12 +9893,12 @@
       <c r="X27" s="54"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="205"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
       <c r="H28" s="53"/>
       <c r="Q28" s="54"/>
       <c r="R28"/>
@@ -9736,12 +9910,12 @@
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
       <c r="H29" s="106"/>
       <c r="R29" s="61" t="s">
         <v>55</v>
@@ -9937,6 +10111,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -9950,14 +10132,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9971,7 +10145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
@@ -11809,7 +11983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -11958,7 +12132,9 @@
       <c r="Z6" s="42"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="105"/>
+      <c r="B7" s="105">
+        <v>2</v>
+      </c>
       <c r="C7" s="69" t="str">
         <f>IF(B7="","",VLOOKUP($B7,Data!$S$7:$V$10,2,FALSE))</f>
         <v/>
@@ -11983,9 +12159,9 @@
         <f>IFERROR(D7+TINV(1-$H$4/100,C7-1)*E40,"")</f>
         <v/>
       </c>
-      <c r="K7" s="161" t="str">
+      <c r="K7" s="161">
         <f>IF(B7="","",B7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="L7" s="80" t="str">
         <f>IFERROR((D7-C40)/E7,"")</f>
@@ -12022,7 +12198,9 @@
       <c r="Z7" s="42"/>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="177"/>
+      <c r="B8" s="177">
+        <v>1</v>
+      </c>
       <c r="C8" s="73" t="str">
         <f>IF(B8="","",VLOOKUP($B8,Data!$S$7:$V$10,2,FALSE))</f>
         <v/>
@@ -12047,9 +12225,9 @@
         <f>IFERROR(D8+TINV(1-$H$4/100,C8-1)*E41,"")</f>
         <v/>
       </c>
-      <c r="K8" s="162" t="str">
+      <c r="K8" s="162">
         <f>IF(B8="","",B8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="L8" s="131" t="str">
         <f>IFERROR((D8-C41)/E8,"")</f>
@@ -13556,9 +13734,9 @@
       <c r="Z39" s="119"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="69" t="str">
+      <c r="B40" s="69">
         <f>IF(B7="","",B7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C40" s="171"/>
       <c r="D40" s="36" t="str">
@@ -13581,9 +13759,9 @@
         <f>IFERROR(IF(TDIST(ABS(F40),G40,2)&lt;0.001,"&lt; 0.001",TDIST(ABS(F40),G40,2)),"")</f>
         <v/>
       </c>
-      <c r="K40" s="69" t="str">
+      <c r="K40" s="69">
         <f>K7</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="L40" s="194" t="s">
         <v>121</v>
@@ -13604,9 +13782,9 @@
       <c r="Z40" s="119"/>
     </row>
     <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="113" t="str">
+      <c r="B41" s="113">
         <f>IF(B8="","",B8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C41" s="172"/>
       <c r="D41" s="64" t="str">
@@ -13629,9 +13807,9 @@
         <f>IFERROR(IF(TDIST(ABS(F41),G41,2)&lt;0.001,"&lt; 0.001",TDIST(ABS(F41),G41,2)),"")</f>
         <v/>
       </c>
-      <c r="K41" s="113" t="str">
+      <c r="K41" s="113">
         <f>K8</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="L41" s="195" t="s">
         <v>121</v>
@@ -13816,7 +13994,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40:L45"/>
     </sheetView>
   </sheetViews>

--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="114_{9C8424FF-C181-4B64-AF13-28DCD2F1B771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38822079-87EF-4AA1-8520-65DFAC4740B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -1402,11 +1402,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1436,10 +1440,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1518,9 +1518,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2462,9 +2462,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3542,9 +3542,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3568,9 +3566,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3594,9 +3590,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3620,9 +3614,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3646,9 +3638,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3672,9 +3662,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -3811,47 +3799,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$H$18:$H$28</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="0">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2B54-48E7-B1A3-3FFDB5D5F70E}"/>
             </c:ext>
@@ -4326,9 +4273,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4372,9 +4317,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4399,9 +4342,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4486,14 +4427,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$D$24:$D$26</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-7ACD-4577-9B6C-3FD6C97D6069}"/>
             </c:ext>
@@ -4835,9 +4768,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4861,9 +4792,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4887,9 +4816,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4913,9 +4840,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4939,9 +4864,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4965,9 +4888,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4991,9 +4912,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5130,47 +5049,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="0">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5638,9 +5516,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5677,9 +5553,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5704,9 +5578,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5772,14 +5644,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$M$24:$M$26</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-FD7C-4E91-9B2D-29D3A1F40736}"/>
             </c:ext>
@@ -5955,9 +5819,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7139,9 +7003,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8938,7 +8802,7 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -9330,7 +9194,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:Y43"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -9357,31 +9221,31 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="K2" s="205" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="K2" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
       <c r="N2" s="148"/>
       <c r="O2" s="148"/>
-      <c r="R2" s="205" t="s">
+      <c r="R2" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="205"/>
-      <c r="T2" s="205"/>
-      <c r="U2" s="205"/>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -9432,15 +9296,15 @@
       <c r="X5" s="54"/>
     </row>
     <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="160" t="s">
         <v>63</v>
@@ -9465,13 +9329,13 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="212"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="163" t="str">
         <f>IF($B$26="","",$B$26)</f>
@@ -9502,13 +9366,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="164" t="str">
         <f>IF($B$27="","",$B$27)</f>
@@ -9576,15 +9440,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="211" t="s">
+      <c r="B10" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="211"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
       <c r="R10" s="164" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9614,13 +9478,13 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="206"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="74" t="s">
         <v>52</v>
@@ -9650,13 +9514,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="207"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="208"/>
+      <c r="F12" s="208"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="208"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
@@ -9667,13 +9531,13 @@
       <c r="X12" s="40"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="54" t="s">
         <v>64</v>
@@ -9686,13 +9550,13 @@
       <c r="X13" s="54"/>
     </row>
     <row r="14" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="208"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="208"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="209"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="54"/>
       <c r="S14" s="54"/>
@@ -9739,16 +9603,16 @@
       <c r="X20" s="54"/>
     </row>
     <row r="21" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="210" t="s">
+      <c r="C21" s="210"/>
+      <c r="D21" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
       <c r="H21" s="11" t="s">
         <v>28</v>
       </c>
@@ -9774,12 +9638,12 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="203"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
       <c r="H22" s="105"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="163"/>
@@ -9793,12 +9657,12 @@
       <c r="X22" s="110"/>
     </row>
     <row r="23" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
       <c r="H23" s="106"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="164"/>
@@ -9857,12 +9721,12 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
+      <c r="B26" s="204"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
       <c r="H26" s="105"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="40"/>
@@ -9874,12 +9738,12 @@
       <c r="X26" s="40"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
+      <c r="B27" s="205"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
       <c r="H27" s="53"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="54" t="s">
@@ -9893,12 +9757,12 @@
       <c r="X27" s="54"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="214"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
+      <c r="B28" s="205"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
       <c r="H28" s="53"/>
       <c r="Q28" s="54"/>
       <c r="R28"/>
@@ -9910,12 +9774,12 @@
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="204"/>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
       <c r="H29" s="106"/>
       <c r="R29" s="61" t="s">
         <v>55</v>
@@ -10111,14 +9975,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -10132,6 +9988,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0706F61C-8BD0-4213-A1A3-65EF2105D334}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -417,9 +417,6 @@
     <t>EASE also includes null hypothesis significance tests.</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/psych/cw/</t>
-  </si>
-  <si>
     <t>Using this Module</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1402,15 +1402,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1440,6 +1436,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3446,7 +3446,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3470,7 +3472,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3494,7 +3498,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-0A15-48DF-A26A-9BB03F5A278C}"/>
                 </c:ext>
@@ -3518,7 +3524,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3542,7 +3550,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3566,7 +3576,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3590,7 +3602,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3614,7 +3628,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3638,7 +3654,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -3662,7 +3680,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -3686,7 +3706,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-97B6-4CF0-9A3E-619917FF6CA1}"/>
                 </c:ext>
@@ -4273,7 +4295,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4317,7 +4341,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4342,7 +4368,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-7ACD-4577-9B6C-3FD6C97D6069}"/>
                 </c:ext>
@@ -4696,7 +4724,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4720,7 +4750,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4744,7 +4776,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4768,7 +4802,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4792,7 +4828,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4816,7 +4854,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4840,7 +4880,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4864,7 +4906,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4888,7 +4932,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4912,7 +4958,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -4936,7 +4984,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5516,7 +5566,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5553,7 +5605,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -5578,7 +5632,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-FD7C-4E91-9B2D-29D3A1F40736}"/>
                 </c:ext>
@@ -8802,8 +8858,8 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8822,7 +8878,7 @@
     <row r="2" spans="1:17" s="145" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="149"/>
       <c r="B2" s="199" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="199"/>
       <c r="D2" s="199"/>
@@ -8856,7 +8912,7 @@
       <c r="I3" s="198"/>
       <c r="J3" s="198"/>
       <c r="K3" s="201" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L3" s="201"/>
       <c r="M3" s="201"/>
@@ -8879,7 +8935,7 @@
       <c r="I4" s="198"/>
       <c r="J4" s="198"/>
       <c r="K4" s="202" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L4" s="201"/>
       <c r="M4" s="201"/>
@@ -9047,13 +9103,13 @@
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>111</v>
       </c>
       <c r="K25" s="197" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9070,7 +9126,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="197" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9090,10 +9146,10 @@
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9133,7 +9189,7 @@
         <v>99</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9148,7 +9204,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9194,7 +9250,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -9221,31 +9277,31 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="K2" s="206" t="s">
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="K2" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
       <c r="N2" s="148"/>
       <c r="O2" s="148"/>
-      <c r="R2" s="206" t="s">
+      <c r="R2" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -9296,15 +9352,15 @@
       <c r="X5" s="54"/>
     </row>
     <row r="6" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="160" t="s">
         <v>63</v>
@@ -9329,13 +9385,13 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="212"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="163" t="str">
         <f>IF($B$26="","",$B$26)</f>
@@ -9366,13 +9422,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="164" t="str">
         <f>IF($B$27="","",$B$27)</f>
@@ -9440,15 +9496,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
       <c r="R10" s="164" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9478,13 +9534,13 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="207"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="207"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="74" t="s">
         <v>52</v>
@@ -9514,13 +9570,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="208"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
@@ -9531,13 +9587,13 @@
       <c r="X12" s="40"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="54" t="s">
         <v>64</v>
@@ -9550,13 +9606,13 @@
       <c r="X13" s="54"/>
     </row>
     <row r="14" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="209"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="208"/>
+      <c r="F14" s="208"/>
+      <c r="G14" s="208"/>
+      <c r="H14" s="208"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="54"/>
       <c r="S14" s="54"/>
@@ -9603,16 +9659,16 @@
       <c r="X20" s="54"/>
     </row>
     <row r="21" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211" t="s">
+      <c r="C21" s="209"/>
+      <c r="D21" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="11" t="s">
         <v>28</v>
       </c>
@@ -9638,12 +9694,12 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="204"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
       <c r="H22" s="105"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="163"/>
@@ -9657,12 +9713,12 @@
       <c r="X22" s="110"/>
     </row>
     <row r="23" spans="2:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="204"/>
       <c r="H23" s="106"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="164"/>
@@ -9721,12 +9777,12 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="204"/>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
       <c r="H26" s="105"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="40"/>
@@ -9738,12 +9794,12 @@
       <c r="X26" s="40"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="205"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="205"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="205"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
       <c r="H27" s="53"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="54" t="s">
@@ -9757,12 +9813,12 @@
       <c r="X27" s="54"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="205"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
       <c r="H28" s="53"/>
       <c r="Q28" s="54"/>
       <c r="R28"/>
@@ -9774,12 +9830,12 @@
       <c r="X28" s="54"/>
     </row>
     <row r="29" spans="2:24" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
+      <c r="B29" s="204"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
       <c r="H29" s="106"/>
       <c r="R29" s="61" t="s">
         <v>55</v>
@@ -9975,6 +10031,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -9988,14 +10052,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F2B959-7CE0-490D-9E41-E6FF298E6CCB}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2116AC11-F222-4997-8FAF-9EDF95BA3A33}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,16 +423,10 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
     <t>How to Cite</t>
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
@@ -442,6 +436,12 @@
   </si>
   <si>
     <t>Wendorf, C. A. (2020).</t>
+  </si>
+  <si>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1150,11 +1150,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1184,10 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8652,7 +8652,7 @@
       <c r="I3" s="94"/>
       <c r="J3" s="94"/>
       <c r="K3" s="117" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -8672,7 +8672,7 @@
       <c r="G4" s="117"/>
       <c r="H4" s="117"/>
       <c r="K4" s="118" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="117"/>
@@ -8825,7 +8825,7 @@
         <v>110</v>
       </c>
       <c r="K25" s="114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -8841,7 +8841,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="114" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -8862,7 +8862,7 @@
         <v>122</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -8885,7 +8885,7 @@
         <v>97</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8899,7 +8899,7 @@
         <v>98</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8913,7 +8913,7 @@
         <v>99</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8981,31 +8981,31 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="N2" s="91"/>
       <c r="O2" s="91"/>
-      <c r="R2" s="121" t="s">
+      <c r="R2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -9038,15 +9038,15 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="R6" s="51" t="s">
         <v>62</v>
       </c>
@@ -9070,13 +9070,13 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
       <c r="R7" s="53" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v/>
@@ -9106,13 +9106,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
       <c r="R8" s="55" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v/>
@@ -9178,15 +9178,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
       <c r="R10" s="55" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9216,13 +9216,13 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
       <c r="R11" s="57" t="s">
         <v>51</v>
       </c>
@@ -9251,13 +9251,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -9267,25 +9267,25 @@
       <c r="X12" s="8"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
       <c r="R13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
     </row>
     <row r="19" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
@@ -9311,16 +9311,16 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
       <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
@@ -9345,12 +9345,12 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="75"/>
       <c r="R22" s="53"/>
       <c r="S22" s="52"/>
@@ -9363,12 +9363,12 @@
       <c r="X22" s="78"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="76"/>
       <c r="R23" s="55"/>
       <c r="S23" s="54"/>
@@ -9424,12 +9424,12 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="75"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -9440,33 +9440,33 @@
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
       <c r="H27" s="41"/>
       <c r="R27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
       <c r="H28" s="41"/>
     </row>
     <row r="29" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
       <c r="H29" s="76"/>
       <c r="R29" s="47" t="s">
         <v>54</v>
@@ -9662,14 +9662,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -9683,6 +9675,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9711,33 +9711,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11522,33 +11522,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -13292,34 +13292,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
       <c r="I2"/>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2116AC11-F222-4997-8FAF-9EDF95BA3A33}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2117B358-8E9B-46D9-B02D-88A465F0F972}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="31" r:id="rId1"/>
@@ -1150,15 +1150,11 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1188,6 +1184,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8278,9 +8278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8318,9 +8318,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8353,26 +8353,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8405,26 +8388,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8931,7 +8897,7 @@
       <c r="Q33"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -8981,31 +8947,31 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="K2" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
       <c r="N2" s="91"/>
       <c r="O2" s="91"/>
-      <c r="R2" s="122" t="s">
+      <c r="R2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -9038,15 +9004,15 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
       <c r="R6" s="51" t="s">
         <v>62</v>
       </c>
@@ -9070,13 +9036,13 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
       <c r="R7" s="53" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v/>
@@ -9106,13 +9072,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
       <c r="R8" s="55" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v/>
@@ -9178,15 +9144,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
       <c r="R10" s="55" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9216,13 +9182,13 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="R11" s="57" t="s">
         <v>51</v>
       </c>
@@ -9251,13 +9217,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -9267,25 +9233,25 @@
       <c r="X12" s="8"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
       <c r="R13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
     </row>
     <row r="19" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
@@ -9311,16 +9277,16 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="127" t="s">
+      <c r="C21" s="125"/>
+      <c r="D21" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
       <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
@@ -9345,12 +9311,12 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="75"/>
       <c r="R22" s="53"/>
       <c r="S22" s="52"/>
@@ -9363,12 +9329,12 @@
       <c r="X22" s="78"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="76"/>
       <c r="R23" s="55"/>
       <c r="S23" s="54"/>
@@ -9424,12 +9390,12 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
       <c r="H26" s="75"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -9440,33 +9406,33 @@
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
       <c r="H27" s="41"/>
       <c r="R27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="41"/>
     </row>
     <row r="29" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="76"/>
       <c r="R29" s="47" t="s">
         <v>54</v>
@@ -9662,6 +9628,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -9675,14 +9649,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9711,33 +9677,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="K2" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="T2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11522,33 +11488,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="K2" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="T2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -13292,34 +13258,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
       <c r="I2"/>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="T2" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2117B358-8E9B-46D9-B02D-88A465F0F972}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555FA365-765D-46A9-8FDB-62DE239A194E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,19 +429,19 @@
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/EASE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
     <t>Wendorf, C. A. (2020).</t>
   </si>
   <si>
-    <t>Version: 2.210601</t>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
+    <t>https://github.com/cwendorf/BASE/tree/main/EASE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -8277,6 +8277,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8570,7 +8574,7 @@
   <dimension ref="B2:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8618,7 +8622,7 @@
       <c r="I3" s="94"/>
       <c r="J3" s="94"/>
       <c r="K3" s="117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -8638,7 +8642,7 @@
       <c r="G4" s="117"/>
       <c r="H4" s="117"/>
       <c r="K4" s="118" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="117"/>
@@ -8807,7 +8811,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -8851,7 +8855,7 @@
         <v>97</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8865,7 +8869,7 @@
         <v>98</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8879,7 +8883,7 @@
         <v>99</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>

--- a/EASE/EASE(D)-OneWay.xlsx
+++ b/EASE/EASE(D)-OneWay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555FA365-765D-46A9-8FDB-62DE239A194E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="114_{2B26CC36-6C37-49EA-BFAB-06036BD5F07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E8E4A38-3417-4288-9029-4DEF63B78306}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,9 +432,6 @@
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
-  </si>
-  <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>Version: 2.241027</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
   </si>
 </sst>
 </file>
@@ -1150,11 +1150,15 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1184,10 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8277,10 +8277,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8573,7 +8569,7 @@
   </sheetPr>
   <dimension ref="B2:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
@@ -8622,7 +8618,7 @@
       <c r="I3" s="94"/>
       <c r="J3" s="94"/>
       <c r="K3" s="117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
@@ -8642,7 +8638,7 @@
       <c r="G4" s="117"/>
       <c r="H4" s="117"/>
       <c r="K4" s="118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L4" s="117"/>
       <c r="M4" s="117"/>
@@ -8855,7 +8851,7 @@
         <v>97</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8869,7 +8865,7 @@
         <v>98</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8883,7 +8879,7 @@
         <v>99</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8951,31 +8947,31 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
       <c r="N2" s="91"/>
       <c r="O2" s="91"/>
-      <c r="R2" s="121" t="s">
+      <c r="R2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
     </row>
     <row r="3" spans="2:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -9008,15 +9004,15 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="R6" s="51" t="s">
         <v>62</v>
       </c>
@@ -9040,13 +9036,13 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
       <c r="R7" s="53" t="str">
         <f>IF($B$26="","",$B$26)</f>
         <v/>
@@ -9076,13 +9072,13 @@
       </c>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
       <c r="R8" s="55" t="str">
         <f>IF($B$27="","",$B$27)</f>
         <v/>
@@ -9148,15 +9144,15 @@
       </c>
     </row>
     <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="127" t="s">
+      <c r="B10" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
       <c r="R10" s="55" t="str">
         <f>IF($B$29="","",$B$29)</f>
         <v/>
@@ -9186,13 +9182,13 @@
       </c>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
       <c r="R11" s="57" t="s">
         <v>51</v>
       </c>
@@ -9221,13 +9217,13 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -9237,25 +9233,25 @@
       <c r="X12" s="8"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
       <c r="R13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
     </row>
     <row r="19" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
@@ -9281,16 +9277,16 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="126" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
       <c r="H21" s="9" t="s">
         <v>28</v>
       </c>
@@ -9315,12 +9311,12 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="75"/>
       <c r="R22" s="53"/>
       <c r="S22" s="52"/>
@@ -9333,12 +9329,12 @@
       <c r="X22" s="78"/>
     </row>
     <row r="23" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
       <c r="H23" s="76"/>
       <c r="R23" s="55"/>
       <c r="S23" s="54"/>
@@ -9394,12 +9390,12 @@
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="75"/>
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
@@ -9410,33 +9406,33 @@
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
       <c r="H27" s="41"/>
       <c r="R27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
       <c r="H28" s="41"/>
     </row>
     <row r="29" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
       <c r="H29" s="76"/>
       <c r="R29" s="47" t="s">
         <v>54</v>
@@ -9632,14 +9628,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:M4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="21">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -9653,6 +9641,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9681,33 +9677,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11492,33 +11488,33 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="K2" s="121" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -13262,34 +13258,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
       <c r="I2"/>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="T2" s="121" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>
